--- a/training/Nguyễn Văn Hải-51600022/Add2Num_High-level-requirement_v1.1_Review_Nguyễn Văn Hải-51600022.xlsx
+++ b/training/Nguyễn Văn Hải-51600022/Add2Num_High-level-requirement_v1.1_Review_Nguyễn Văn Hải-51600022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vyvoh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\CNPM\training\Nguyễn Văn Hải-51600022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2317,8 +2317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B41" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL37" sqref="AL37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B21" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AK34" sqref="AK34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15"/>
@@ -3261,7 +3261,7 @@
         <v>47</v>
       </c>
       <c r="AK30" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL30" s="55" t="s">
         <v>73</v>
@@ -3373,7 +3373,7 @@
         <v>58</v>
       </c>
       <c r="AK36" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL36" s="59" t="s">
         <v>78</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="AL66" s="56">
         <f>COUNTIF(AK2:AK65,"Y")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="34:38">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="AL67" s="56">
         <f>COUNTIF(AK2:AK65,"N")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
